--- a/cahua/武器配置.xlsx
+++ b/cahua/武器配置.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74051E89-1175-46F9-B032-2D2BA593ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A83324-760E-41E1-BFB7-7315FEFFE194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21405" yWindow="1005" windowWidth="24990" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="32100" windowHeight="19680" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player层级关系" sheetId="5" r:id="rId1"/>
-    <sheet name="初始剑" sheetId="2" r:id="rId2"/>
-    <sheet name="初始剑特效1" sheetId="3" r:id="rId3"/>
-    <sheet name="初始剑特效2" sheetId="4" r:id="rId4"/>
-    <sheet name="盾" sheetId="1" r:id="rId5"/>
+    <sheet name="武器角色动画替换" sheetId="10" r:id="rId2"/>
+    <sheet name="建立替换武器列表" sheetId="11" r:id="rId3"/>
+    <sheet name="武器关键帧作用" sheetId="7" r:id="rId4"/>
+    <sheet name="HITBOX配置" sheetId="8" r:id="rId5"/>
+    <sheet name="attack event hub说明" sheetId="2" r:id="rId6"/>
+    <sheet name="盾" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,63 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>PlayerRoot</t>
   </si>
   <si>
-    <t>——Component     物理 碰撞体 脚本：角色移动跳跃下蹲等操作属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————Ground Point   脚下点 检测跳跃 下蹲  落地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————Flip     角色序列帧 左右镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————————player   角色渲染 动画  脚本：播放武器 特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————————HandSocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—————————————player_shield   武器盾 脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————————————player_weapon   武器初始剑 脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————————————player_weapon_effect   武器初始剑特效 脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>————————————player_weapon_effectstar   武器初始剑特效 脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————————ShieldOffset   盾序列帧 左右镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————————WeaponOffset     武器初始剑序列帧 左右镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————————VfxWeaponOffset    武器初始剑特效1序列帧 左右镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————————VfxWeaponOffsetstar   武器初始剑特效1序列帧 左右镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weaponAnimator</t>
   </si>
   <si>
@@ -195,20 +145,6 @@
     <t>player_weapon_idle_effect</t>
   </si>
   <si>
-    <t>player_weapon_duck_attack_effectstar</t>
-  </si>
-  <si>
-    <t>player_weapon_duckForward_attack_effectstar</t>
-  </si>
-  <si>
-    <t>下蹲剑攻击特效星星 序列帧 可以代替站立剑攻击特效星星 和 跳跃剑攻击特星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下蹲剑斜下攻击特效星星 序列帧 可以代替跳跃斜下攻击特效星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下蹲剑攻击特效 序列帧 可以代替站立剑攻击特效 和 跳跃剑攻击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,7 +157,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特效星星隐藏</t>
+    <t>角色攻击关键帧说明</t>
+  </si>
+  <si>
+    <t>一、武器本体动画与偏移</t>
+  </si>
+  <si>
+    <t>SetWeaponXYOffsetStr(string xy)</t>
+  </si>
+  <si>
+    <t>功能：设置武器播放根的局部偏移（weaponOffsetRoot.localPosition 的 x/y）。</t>
+  </si>
+  <si>
+    <t>参数：字符串格式的“x,y”或“x;y”或“x y”（小数用英文点）。示例："0.02,-0.03"。</t>
+  </si>
+  <si>
+    <t>用法：偶发微调刀身/拖尾的出手锚点。一般很少在每把武器的关键帧里频繁用，更多用于一次性调位。</t>
+  </si>
+  <si>
+    <t>PlayWeapon(string stateName)</t>
+  </si>
+  <si>
+    <t>功能：通过 attackHub 播放“武器 Animator”的某个状态（如 weapon_slashA）。</t>
+  </si>
+  <si>
+    <t>用法：若你不想用 EvtWeaponPlay，也可以直接在关键帧调用它；二者等价，EvtWeaponPlay 只是更明确语义。</t>
+  </si>
+  <si>
+    <t>StopWeapon()</t>
+  </si>
+  <si>
+    <t>功能：通过 attackHub 把武器 Animator 切回 idle，并归还“脱体”父子关系、可选复位偏移。</t>
+  </si>
+  <si>
+    <t>用法：中途只停止“武器本体动画”而不停特效时使用；若要“武器+特效一起收尾”，用 EvtWeaponEnd（见下）。</t>
+  </si>
+  <si>
+    <t>二、武器与角色层特效（VFX）</t>
+  </si>
+  <si>
+    <t>SetVfxXYOffsetStr(string xy)</t>
+  </si>
+  <si>
+    <t>功能：对 vfxHubs 列表中的每个 AttackEventHub 设置同样的 XY 偏移。</t>
+  </si>
+  <si>
+    <t>用法：多 FX 同步移动的特殊需求；常规无需频繁使用。</t>
+  </si>
+  <si>
+    <t>PlayVfx(string stateName)</t>
+  </si>
+  <si>
+    <t>功能：广播到 vfxHubs，每个 hub 播放其 Animator 的该状态。</t>
+  </si>
+  <si>
+    <t>用法：在关键帧触发刀光、冲击波等特效（如果这些 FX 是用 Animator 状态而不是 Prefab 粒子）。</t>
+  </si>
+  <si>
+    <t>StopVfx()</t>
+  </si>
+  <si>
+    <t>功能：广播停止 vfxHubs（切回各自 idle）。</t>
+  </si>
+  <si>
+    <t>用法：结尾收尾，或中途转场时清理 FX。注意 EvtWeaponEnd 也会调用 StopVfx。</t>
+  </si>
+  <si>
+    <t>三、盾牌显示（与攻击无直接关系，供盾的动画用）</t>
+  </si>
+  <si>
+    <t>SetShieldXYOffsetStr(string xy)</t>
+  </si>
+  <si>
+    <t>PlayShield(string stateName)</t>
+  </si>
+  <si>
+    <t>StopShield()</t>
+  </si>
+  <si>
+    <t>PlayShieldStanding()</t>
+  </si>
+  <si>
+    <t>PlayShieldDuck()</t>
+  </si>
+  <si>
+    <t>功能：与“武器/特效”的 Play/Stop 相同，但针对 shieldHub。</t>
+  </si>
+  <si>
+    <t>用法：只在举盾相关的动画里用；普通武器攻击的关键帧中一般不要调用，避免干扰。</t>
+  </si>
+  <si>
+    <t>四、玩家控制逻辑转发（PlayerController）</t>
+  </si>
+  <si>
+    <t>OnWallJumpForwardUnlock()</t>
+  </si>
+  <si>
+    <t>功能：转发给 PlayerController.OnWallJumpForwardUnlock，用于墙跳动画到达解锁帧。</t>
+  </si>
+  <si>
+    <t>用法：只放在墙跳转身的动画关键帧；与武器无关。</t>
+  </si>
+  <si>
+    <t>OnAttackEnd()</t>
+  </si>
+  <si>
+    <t>OnDuckAttackEnd()</t>
+  </si>
+  <si>
+    <t>功能：转发给 PlayerController 的攻击收尾回调，解除 groundAttackActive 等状态。</t>
+  </si>
+  <si>
+    <t>用法：通常由玩家 Animator 的 *_attack_end 动画中尾帧调用；务必与 PlayerController 的现有配置一致。不要把它当作“武器收尾”，武器的收尾用 EvtWeaponEnd。</t>
+  </si>
+  <si>
+    <t>EvtHitOff(0)</t>
+  </si>
+  <si>
+    <t>EvtHitOn(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器物理伤害检测体打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器物理伤害检测体关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int代表哪个碰撞体起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground Point   脚下点 检测跳跃 下蹲  落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip     角色序列帧 左右镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player   角色渲染 动画  脚本：播放武器 特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component     物理 碰撞体 脚本：角色移动跳跃下蹲等操作属性   武器库ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col_Standing  站立时候的碰撞体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col_Duck  下蹲时候的碰撞体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerDistPoint   角色中心  用来做与怪物飞行物 等检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldOffset   盾序列帧 左右镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_shield   武器盾 脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponOffset     武器初始剑序列帧 左右镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_weapon   武器初始剑    替换武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VfxWeaponOffset    武器初始剑特效1序列帧 左右镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_weapon_effect   武器初始剑特效   替换武器特效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VfxWeaponOffsetstar   武器初始剑特效1序列帧 左右镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_weapon_effectstar   武器初始剑特效    替换武器特效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandSocketR  右手  主要是武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandSocketL  左手 盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置几个武器伤害检测体  和 伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定美术、动画、脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定collider：is trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效同样设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定切换武器库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player下的这个武器关键帧脚本不需要指定，运行游戏会替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立替换动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换需要更换的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定初始动画状态机PlayerAnimatorController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,15 +458,656 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2857163</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB912FF-44A1-92C8-4E28-D49A64CB2E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="3524250"/>
+          <a:ext cx="2695238" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5695245</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341BF460-6637-E5C4-8261-DF0858FA84C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="6858000"/>
+          <a:ext cx="5638095" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5695240</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1744F1EA-E4D7-D933-63E0-403B5E7C3ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="10858500"/>
+          <a:ext cx="5676190" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>256973</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD4DEA3-F232-4A8C-3983-9B9CF9835CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1171575"/>
+          <a:ext cx="1619048" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>8596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33401996-B9A8-562A-6E01-B775A77C8419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2714625"/>
+          <a:ext cx="5523809" cy="7428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542698</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C30BE6C-5E28-49D6-33FF-F3061DAE0669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="95250"/>
+          <a:ext cx="1819048" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532682</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B70E07-0EE8-1D4F-AB6F-2F2F98A755D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="1304925"/>
+          <a:ext cx="5742857" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>151712</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CB505F-F6C1-611D-6B61-CA198350E1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="238125"/>
+          <a:ext cx="5504762" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9218F3D-CB70-EFCE-F364-C726F311196D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="95250"/>
+          <a:ext cx="1761905" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513534</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A65F40-2182-3061-C8C4-42E49FF017EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="38100"/>
+          <a:ext cx="6523809" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66410</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B3693-70BB-83A6-32C1-44D71AB360E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="2123810" cy="857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56326</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAC8510-387D-2B6D-5B9E-D123F3D8887E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="2466975"/>
+          <a:ext cx="6590476" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8F3EB3-CDF7-D926-2B4A-A3F001AD93EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9953625"/>
+          <a:ext cx="1800000" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132648</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AC9BF0-1800-A600-38E5-75F9F9961558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="9953625"/>
+          <a:ext cx="5619048" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2694949</xdr:colOff>
+      <xdr:colOff>2799724</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>56739</xdr:rowOff>
+      <xdr:rowOff>66264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,7 +1130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="28575"/>
+          <a:off x="133350" y="38100"/>
           <a:ext cx="5009524" cy="3285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -330,30 +1140,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1980577</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66282</xdr:rowOff>
+      <xdr:colOff>2656852</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20F191B-B324-F06E-027B-18745B64A532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76B5C8B-A210-4CC3-97A6-2CE40174116B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -362,14 +1167,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="19050" y="6972300"/>
           <a:ext cx="4980952" cy="3142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -382,56 +1187,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB9251-2662-5E8F-3AA8-E74614008CA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="76200"/>
-          <a:ext cx="5000000" cy="3142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -743,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D819D56-A05D-488F-9E53-E10EEF0C2B17}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,81 +1517,423 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AE1537-1B46-49D8-A519-47B2588E69D5}">
-  <dimension ref="A2:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9795F1FC-7A49-407D-AF19-2647EC99F737}">
+  <dimension ref="A6:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011AA342-C047-4155-89C7-27072A99E1CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E201FADA-3B6F-4162-AE7B-E828A04F137C}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D540935-01B6-4113-B4CC-FDE062F8486D}">
+  <dimension ref="A11:A62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U62" sqref="U62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AE1537-1B46-49D8-A519-47B2588E69D5}">
+  <dimension ref="A2:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,84 +1945,113 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -934,102 +2061,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D69D21-7802-4C26-BDAA-54F9C770F881}">
-  <dimension ref="A23:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178ED0A1-9BA1-46BC-87F0-B950D5812292}">
-  <dimension ref="A22:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="68.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A19:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,32 +2078,32 @@
   <sheetData>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
